--- a/validacao/validacao_rat_vo.xlsx
+++ b/validacao/validacao_rat_vo.xlsx
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="H476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -12900,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -19036,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="H737" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -20102,7 +20102,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -20128,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="H758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -20258,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="H762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -20362,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="H841" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -22884,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="H913" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914">
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="H914" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="H932" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -24912,7 +24912,7 @@
         <v>0</v>
       </c>
       <c r="H941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -25094,7 +25094,7 @@
         <v>0</v>
       </c>
       <c r="H948" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949">
@@ -25432,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="H961" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="H967" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -25900,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="H979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -26056,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="H985" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="H989" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -26342,7 +26342,7 @@
         <v>0</v>
       </c>
       <c r="H996" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="H997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -26498,7 +26498,7 @@
         <v>0</v>
       </c>
       <c r="H1002" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -26524,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="H1003" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004">
@@ -27096,7 +27096,7 @@
         <v>0</v>
       </c>
       <c r="H1025" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="H1028" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -27642,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="H1046" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
@@ -27694,7 +27694,7 @@
         <v>0</v>
       </c>
       <c r="H1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -28084,7 +28084,7 @@
         <v>0</v>
       </c>
       <c r="H1063" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -28188,7 +28188,7 @@
         <v>0</v>
       </c>
       <c r="H1067" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -28240,7 +28240,7 @@
         <v>0</v>
       </c>
       <c r="H1069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="H1087" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088">
@@ -28942,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="H1096" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -29072,7 +29072,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -29748,7 +29748,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="H1134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="H1138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139">
@@ -30684,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="H1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164">
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="H1167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168">
@@ -31464,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="H1193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194">
@@ -31854,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="H1208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
@@ -32036,7 +32036,7 @@
         <v>0</v>
       </c>
       <c r="H1215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -32218,7 +32218,7 @@
         <v>0</v>
       </c>
       <c r="H1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -32322,7 +32322,7 @@
         <v>0</v>
       </c>
       <c r="H1226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227">
@@ -32348,7 +32348,7 @@
         <v>0</v>
       </c>
       <c r="H1227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -32530,7 +32530,7 @@
         <v>0</v>
       </c>
       <c r="H1234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
@@ -32946,7 +32946,7 @@
         <v>0</v>
       </c>
       <c r="H1250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251">
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="H1256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -33206,7 +33206,7 @@
         <v>0</v>
       </c>
       <c r="H1260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -33388,7 +33388,7 @@
         <v>0</v>
       </c>
       <c r="H1267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -33414,7 +33414,7 @@
         <v>0</v>
       </c>
       <c r="H1268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269">
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="H1299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -34246,7 +34246,7 @@
         <v>0</v>
       </c>
       <c r="H1300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -34324,7 +34324,7 @@
         <v>0</v>
       </c>
       <c r="H1303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304">
@@ -34402,7 +34402,7 @@
         <v>0</v>
       </c>
       <c r="H1306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
       <c r="H1312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -34688,7 +34688,7 @@
         <v>0</v>
       </c>
       <c r="H1317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318">
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="H1321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322">
@@ -34896,7 +34896,7 @@
         <v>0</v>
       </c>
       <c r="H1325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="H1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -35546,7 +35546,7 @@
         <v>0</v>
       </c>
       <c r="H1350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="H1381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -36404,7 +36404,7 @@
         <v>0</v>
       </c>
       <c r="H1383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384">
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="H1391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392">
@@ -36664,7 +36664,7 @@
         <v>0</v>
       </c>
       <c r="H1393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -36690,7 +36690,7 @@
         <v>0</v>
       </c>
       <c r="H1394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -37054,7 +37054,7 @@
         <v>0</v>
       </c>
       <c r="H1408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -37262,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="H1416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417">
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="H1436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1437">
@@ -37834,7 +37834,7 @@
         <v>0</v>
       </c>
       <c r="H1438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -37964,7 +37964,7 @@
         <v>0</v>
       </c>
       <c r="H1443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444">
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="H1445" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446">
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="H1449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -38146,7 +38146,7 @@
         <v>0</v>
       </c>
       <c r="H1450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="H1451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -38250,7 +38250,7 @@
         <v>0</v>
       </c>
       <c r="H1454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -38458,7 +38458,7 @@
         <v>0</v>
       </c>
       <c r="H1462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -38848,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="H1477" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -39368,7 +39368,7 @@
         <v>0</v>
       </c>
       <c r="H1497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -40044,7 +40044,7 @@
         <v>0</v>
       </c>
       <c r="H1523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1524">
@@ -40668,7 +40668,7 @@
         <v>0</v>
       </c>
       <c r="H1547" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548">
@@ -40720,7 +40720,7 @@
         <v>0</v>
       </c>
       <c r="H1549" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550">
@@ -40746,7 +40746,7 @@
         <v>0</v>
       </c>
       <c r="H1550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1551">
@@ -41422,7 +41422,7 @@
         <v>0</v>
       </c>
       <c r="H1576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577">
@@ -41630,7 +41630,7 @@
         <v>0</v>
       </c>
       <c r="H1584" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -41968,7 +41968,7 @@
         <v>0</v>
       </c>
       <c r="H1597" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -42020,7 +42020,7 @@
         <v>0</v>
       </c>
       <c r="H1599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600">
@@ -42072,7 +42072,7 @@
         <v>0</v>
       </c>
       <c r="H1601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -42540,7 +42540,7 @@
         <v>0</v>
       </c>
       <c r="H1619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620">
@@ -42566,7 +42566,7 @@
         <v>0</v>
       </c>
       <c r="H1620" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621">
@@ -42644,7 +42644,7 @@
         <v>0</v>
       </c>
       <c r="H1623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624">
@@ -43034,7 +43034,7 @@
         <v>0</v>
       </c>
       <c r="H1638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639">
@@ -43138,7 +43138,7 @@
         <v>0</v>
       </c>
       <c r="H1642" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643">
@@ -43242,7 +43242,7 @@
         <v>0</v>
       </c>
       <c r="H1646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647">
@@ -43502,7 +43502,7 @@
         <v>0</v>
       </c>
       <c r="H1656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1657">
@@ -43788,7 +43788,7 @@
         <v>0</v>
       </c>
       <c r="H1667" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1668">
@@ -43866,7 +43866,7 @@
         <v>0</v>
       </c>
       <c r="H1670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1671">
@@ -44048,7 +44048,7 @@
         <v>0</v>
       </c>
       <c r="H1677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678">
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="H1680" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681">
@@ -44178,7 +44178,7 @@
         <v>0</v>
       </c>
       <c r="H1682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1683">
@@ -44932,7 +44932,7 @@
         <v>0</v>
       </c>
       <c r="H1711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712">
@@ -45010,7 +45010,7 @@
         <v>0</v>
       </c>
       <c r="H1714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715">
@@ -45712,7 +45712,7 @@
         <v>0</v>
       </c>
       <c r="H1741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1742">
@@ -45842,7 +45842,7 @@
         <v>0</v>
       </c>
       <c r="H1746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1747">
@@ -45998,7 +45998,7 @@
         <v>0</v>
       </c>
       <c r="H1752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1753">
@@ -46050,7 +46050,7 @@
         <v>0</v>
       </c>
       <c r="H1754" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755">
@@ -46336,7 +46336,7 @@
         <v>0</v>
       </c>
       <c r="H1765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1766">
@@ -46648,7 +46648,7 @@
         <v>0</v>
       </c>
       <c r="H1777" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1778">
@@ -46908,7 +46908,7 @@
         <v>0</v>
       </c>
       <c r="H1787" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1788">
@@ -47142,7 +47142,7 @@
         <v>0</v>
       </c>
       <c r="H1796" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797">
@@ -47246,7 +47246,7 @@
         <v>0</v>
       </c>
       <c r="H1800" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1801">
@@ -47480,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="H1809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810">
@@ -47532,7 +47532,7 @@
         <v>0</v>
       </c>
       <c r="H1811" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812">
@@ -47714,7 +47714,7 @@
         <v>0</v>
       </c>
       <c r="H1818" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819">
@@ -48286,7 +48286,7 @@
         <v>0</v>
       </c>
       <c r="H1840" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1841">
@@ -48754,7 +48754,7 @@
         <v>0</v>
       </c>
       <c r="H1858" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1859">
@@ -48806,7 +48806,7 @@
         <v>0</v>
       </c>
       <c r="H1860" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861">
@@ -48936,7 +48936,7 @@
         <v>0</v>
       </c>
       <c r="H1865" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1866">
@@ -49664,7 +49664,7 @@
         <v>0</v>
       </c>
       <c r="H1893" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1894">
@@ -49716,7 +49716,7 @@
         <v>0</v>
       </c>
       <c r="H1895" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1896">
@@ -49846,7 +49846,7 @@
         <v>0</v>
       </c>
       <c r="H1900" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1901">
@@ -49924,7 +49924,7 @@
         <v>0</v>
       </c>
       <c r="H1903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1904">
@@ -49950,7 +49950,7 @@
         <v>0</v>
       </c>
       <c r="H1904" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1905">
@@ -50028,7 +50028,7 @@
         <v>0</v>
       </c>
       <c r="H1907" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1908">
@@ -50236,7 +50236,7 @@
         <v>0</v>
       </c>
       <c r="H1915" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916">
@@ -50340,7 +50340,7 @@
         <v>0</v>
       </c>
       <c r="H1919" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920">
@@ -50522,7 +50522,7 @@
         <v>0</v>
       </c>
       <c r="H1926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1927">
@@ -50652,7 +50652,7 @@
         <v>0</v>
       </c>
       <c r="H1931" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932">
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="H1940" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1941">
@@ -51250,7 +51250,7 @@
         <v>0</v>
       </c>
       <c r="H1954" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1955">
@@ -51510,7 +51510,7 @@
         <v>0</v>
       </c>
       <c r="H1964" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1965">
@@ -51562,7 +51562,7 @@
         <v>0</v>
       </c>
       <c r="H1966" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1967">
@@ -51718,7 +51718,7 @@
         <v>0</v>
       </c>
       <c r="H1972" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1973">
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="H1981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982">
@@ -52368,7 +52368,7 @@
         <v>0</v>
       </c>
       <c r="H1997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998">
@@ -52524,7 +52524,7 @@
         <v>0</v>
       </c>
       <c r="H2003" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004">
@@ -52602,7 +52602,7 @@
         <v>0</v>
       </c>
       <c r="H2006" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -52784,7 +52784,7 @@
         <v>0</v>
       </c>
       <c r="H2013" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2014">
@@ -53096,7 +53096,7 @@
         <v>0</v>
       </c>
       <c r="H2025" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2026">
@@ -53174,7 +53174,7 @@
         <v>0</v>
       </c>
       <c r="H2028" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029">
@@ -53252,7 +53252,7 @@
         <v>0</v>
       </c>
       <c r="H2031" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2032">
@@ -53668,7 +53668,7 @@
         <v>0</v>
       </c>
       <c r="H2047" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2048">
@@ -53902,7 +53902,7 @@
         <v>0</v>
       </c>
       <c r="H2056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057">
@@ -54604,7 +54604,7 @@
         <v>0</v>
       </c>
       <c r="H2083" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2084">
@@ -54682,7 +54682,7 @@
         <v>0</v>
       </c>
       <c r="H2086" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087">
@@ -54812,7 +54812,7 @@
         <v>0</v>
       </c>
       <c r="H2091" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2092">
@@ -54838,7 +54838,7 @@
         <v>0</v>
       </c>
       <c r="H2092" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2093">
@@ -54968,7 +54968,7 @@
         <v>0</v>
       </c>
       <c r="H2097" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2098">
@@ -55462,7 +55462,7 @@
         <v>0</v>
       </c>
       <c r="H2116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2117">
@@ -55618,7 +55618,7 @@
         <v>0</v>
       </c>
       <c r="H2122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2123">
@@ -56164,7 +56164,7 @@
         <v>0</v>
       </c>
       <c r="H2143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2144">
@@ -56476,7 +56476,7 @@
         <v>0</v>
       </c>
       <c r="H2155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2156">
@@ -56918,7 +56918,7 @@
         <v>0</v>
       </c>
       <c r="H2172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2173">
@@ -57282,7 +57282,7 @@
         <v>0</v>
       </c>
       <c r="H2186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2187">
@@ -57672,7 +57672,7 @@
         <v>0</v>
       </c>
       <c r="H2201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2202">
@@ -58192,7 +58192,7 @@
         <v>0</v>
       </c>
       <c r="H2221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222">
@@ -58296,7 +58296,7 @@
         <v>0</v>
       </c>
       <c r="H2225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2226">
@@ -58400,7 +58400,7 @@
         <v>0</v>
       </c>
       <c r="H2229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230">
@@ -58608,7 +58608,7 @@
         <v>0</v>
       </c>
       <c r="H2237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238">
@@ -58634,7 +58634,7 @@
         <v>0</v>
       </c>
       <c r="H2238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239">
@@ -58946,7 +58946,7 @@
         <v>0</v>
       </c>
       <c r="H2250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251">
@@ -59024,7 +59024,7 @@
         <v>0</v>
       </c>
       <c r="H2253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254">
@@ -59050,7 +59050,7 @@
         <v>0</v>
       </c>
       <c r="H2254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255">
@@ -59076,7 +59076,7 @@
         <v>0</v>
       </c>
       <c r="H2255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="H2256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257">
@@ -59258,7 +59258,7 @@
         <v>0</v>
       </c>
       <c r="H2262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263">
@@ -59544,7 +59544,7 @@
         <v>0</v>
       </c>
       <c r="H2273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2274">
@@ -59648,7 +59648,7 @@
         <v>0</v>
       </c>
       <c r="H2277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2278">
@@ -59778,7 +59778,7 @@
         <v>0</v>
       </c>
       <c r="H2282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283">
@@ -60246,7 +60246,7 @@
         <v>0</v>
       </c>
       <c r="H2300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301">
@@ -60428,7 +60428,7 @@
         <v>0</v>
       </c>
       <c r="H2307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308">
@@ -60636,7 +60636,7 @@
         <v>0</v>
       </c>
       <c r="H2315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2316">
@@ -60688,7 +60688,7 @@
         <v>0</v>
       </c>
       <c r="H2317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2318">
@@ -61754,7 +61754,7 @@
         <v>0</v>
       </c>
       <c r="H2358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359">
@@ -61780,7 +61780,7 @@
         <v>0</v>
       </c>
       <c r="H2359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360">
@@ -61936,7 +61936,7 @@
         <v>0</v>
       </c>
       <c r="H2365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366">
@@ -62196,7 +62196,7 @@
         <v>0</v>
       </c>
       <c r="H2375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2376">
@@ -62482,7 +62482,7 @@
         <v>0</v>
       </c>
       <c r="H2386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387">
@@ -63314,7 +63314,7 @@
         <v>0</v>
       </c>
       <c r="H2418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2419">
@@ -63522,7 +63522,7 @@
         <v>0</v>
       </c>
       <c r="H2426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427">
@@ -63626,7 +63626,7 @@
         <v>0</v>
       </c>
       <c r="H2430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431">
@@ -64068,7 +64068,7 @@
         <v>0</v>
       </c>
       <c r="H2447" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448">
@@ -64094,7 +64094,7 @@
         <v>0</v>
       </c>
       <c r="H2448" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449">
@@ -64172,7 +64172,7 @@
         <v>0</v>
       </c>
       <c r="H2451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452">
@@ -64224,7 +64224,7 @@
         <v>0</v>
       </c>
       <c r="H2453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454">
